--- a/MockExcelTables/ReceiptsTable.xlsx
+++ b/MockExcelTables/ReceiptsTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\Tables\MockExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F8D65-BE7F-42DD-8B95-31C7473554D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AFE0B-6BE5-4747-B837-9741208283EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12E45B05-EEC9-4AFD-ABC0-9F741FA95C3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
   <si>
     <t>UserID</t>
   </si>
@@ -78,16 +78,335 @@
   </si>
   <si>
     <t>21.10.2023 13:02</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4388844104396</t>
+  </si>
+  <si>
+    <t>Wasser-Melone</t>
+  </si>
+  <si>
+    <t>2,824 kg</t>
+  </si>
+  <si>
+    <t>2915482016846</t>
+  </si>
+  <si>
+    <t>Weißkohl</t>
+  </si>
+  <si>
+    <t>2,530 kg</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>ASC Regenb. Forelle</t>
+  </si>
+  <si>
+    <t>0,536 kg</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>TomateStrau.</t>
+  </si>
+  <si>
+    <t>0,632 kg</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Bananen</t>
+  </si>
+  <si>
+    <t>0,878 kg</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Apfel rot</t>
+  </si>
+  <si>
+    <t>0,30</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Bio Mini Möhren</t>
+  </si>
+  <si>
+    <t>200 g</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Bio Rote Beete</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Paprika Mix</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Bio Gemüsepfanne As.</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Brokkoli-Buchweizen</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Riesengarnelen Natur</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Protein Eis Chocolat</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Bio Dill 50g Bergader Alm. Mild</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Bergader Alm. Mild</t>
+  </si>
+  <si>
+    <t>0,44</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Müller Milchr. Apfel</t>
+  </si>
+  <si>
+    <t>0,40</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Frischmilch 1,5% OGT</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Vollmilch 3,5% OGT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Griech. Joghurt 10%</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Veganer Kokosjoghurt</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Bürger Maultaschen</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Tilsiter Scheiben</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Dovgan Fam.2,5% Fett</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Dressing Honig-Senf</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Rote Grütze</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Zott Jogh. Bratapfel</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischkäse Sahnige </t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarkriegel classic </t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Kölln Müsli Früchte</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Haferdrink 3,5</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallmayr Crema d'Oro </t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knoblauch granuliert </t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Salbei-Eukalyptustee</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Pfefferminztee UTZ</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Fr.Eier.a.Bo.h.10er</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio Geh. Tom. Knobl. </t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bull Sugarfree </t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Pfand 0,25 M</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Körnerglück</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Biol. Körn.Krust</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Quarktasche</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Sonnencrusti</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Hähncheninnenfilets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,9 +447,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,15 +765,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CB0621-516F-4F63-B2C9-67DC679B0459}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,16 +798,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,17 +826,23 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,33 +855,1268 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>7787</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
